--- a/03_Outputs/all/01_TablasDescriptivas/idx8_demografica.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx8_demografica.xlsx
@@ -424,7 +424,7 @@
         <v>-65.96071046914989</v>
       </c>
       <c r="D3">
-        <v>9.394278152194433</v>
+        <v>9.394278152194435</v>
       </c>
       <c r="E3">
         <v>-100.724637681159</v>
@@ -490,7 +490,7 @@
         <v>-62.60798411280962</v>
       </c>
       <c r="D6">
-        <v>7.997597754705825</v>
+        <v>7.997597754705824</v>
       </c>
       <c r="E6">
         <v>-87.53246753246751</v>
